--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330"/>
+    <workbookView windowWidth="28125" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
     <t>收货人 电话</t>
   </si>
   <si>
-    <t xml:space="preserve">彭 竞  18672461667			</t>
+    <t xml:space="preserve">彭竞  18672461667			</t>
   </si>
   <si>
     <t>发货日期</t>
@@ -249,19 +249,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,7 +270,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,9 +343,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,123 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -440,85 +433,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,43 +577,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,49 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +624,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,22 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,32 +708,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,149 +729,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,13 +882,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1220,8 +1213,8 @@
   <sheetPr/>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="A1048534" workbookViewId="0">
-      <selection activeCell="A1048554" sqref="A1048554"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin_tian/Desktop/天济明工程文件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyang\Desktop\GenTemplateBJ-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29031F67-6A23-5D4B-8D3E-23F50649BE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB291D2-0D6A-4ADC-80A4-01024EDBB091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{D7ED34E7-1E3C-5146-B496-20F32BC6C614}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{D7ED34E7-1E3C-5146-B496-20F32BC6C614}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>北京天济明科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +341,14 @@
   </si>
   <si>
     <t>0版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可拆卸阀门保温盒s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -746,31 +752,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC94CFB-57A7-0C46-B9D7-B43D1665F541}">
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.3046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.15234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3046875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.84375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4609375" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="14" width="26.6640625" style="1" customWidth="1"/>
-    <col min="15" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="15.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="32.1640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="34.4609375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.69140625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="10.84375" style="1"/>
+    <col min="14" max="14" width="26.69140625" style="1" customWidth="1"/>
+    <col min="15" max="19" width="10.84375" style="1"/>
+    <col min="20" max="20" width="15.69140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.15234375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -838,7 +844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -870,7 +876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -902,7 +908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -931,7 +937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -960,7 +966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -989,7 +995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -1157,11 +1163,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="1048576" spans="1:1">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1048576" s="1" t="s">
         <v>8</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>站号</t>
   </si>
@@ -269,6 +269,21 @@
   </si>
   <si>
     <t>可拆卸阀门保温盒s</t>
+  </si>
+  <si>
+    <t>供方地点</t>
+  </si>
+  <si>
+    <t>安徽潜山</t>
+  </si>
+  <si>
+    <t>放行联系人</t>
+  </si>
+  <si>
+    <t>赵献亭</t>
+  </si>
+  <si>
+    <t>放行联系人电话</t>
   </si>
 </sst>
 </file>
@@ -276,19 +291,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +310,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -311,28 +363,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,10 +385,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,10 +402,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,11 +421,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,11 +436,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,21 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,29 +465,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -467,187 +475,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,17 +669,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,23 +722,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,174 +766,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,16 +924,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1248,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8416666666667" defaultRowHeight="15.75"/>
@@ -1669,14 +1677,33 @@
         <v>84</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15532688190</v>
+      </c>
+    </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-    </row>
-    <row r="1048576" spans="1:1">
-      <c r="A1048576" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
